--- a/Data/(1) TimecardPunch_SK_REG_T&A_COMPLETE.xlsx
+++ b/Data/(1) TimecardPunch_SK_REG_T&A_COMPLETE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880D1BCB-E469-4091-ADAD-0EFF34904415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FA319C-7E68-4E8F-B01F-B317A38515E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,10 +493,13 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -756,7 +759,7 @@
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -790,8 +793,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:I6 A7:H10" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:I1 A3:F10 I2:I10 B2:F2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>